--- a/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/furto/cv125143a.xlsx
+++ b/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/furto/cv125143a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>unnamed: 1_level_0</t>
   </si>
@@ -25,9 +25,6 @@
     <t>não economicamente ativas</t>
   </si>
   <si>
-    <t>unnamed: 1_level_1</t>
-  </si>
-  <si>
     <t>total</t>
   </si>
   <si>
@@ -37,22 +34,13 @@
     <t>condição de ocupação na semana de referência.1</t>
   </si>
   <si>
-    <t>unnamed: 5_level_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">               brasil</t>
   </si>
   <si>
-    <t>situação do domicílio</t>
-  </si>
-  <si>
     <t>urbana</t>
   </si>
   <si>
     <t>rural</t>
-  </si>
-  <si>
-    <t>grandes regiões e unidades da federação</t>
   </si>
   <si>
     <t>norte</t>
@@ -503,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -529,21 +517,21 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>1.625268684693772</v>
@@ -563,671 +551,661 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>1.591917932666169</v>
+      </c>
+      <c r="C5">
+        <v>1.654264931137669</v>
+      </c>
+      <c r="D5">
+        <v>1.675917316153373</v>
+      </c>
+      <c r="E5">
+        <v>4.384205465296882</v>
+      </c>
+      <c r="F5">
+        <v>2.52487792541014</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6">
-        <v>1.591917932666169</v>
+        <v>4.599411904495814</v>
       </c>
       <c r="C6">
-        <v>1.654264931137669</v>
+        <v>4.823244570297132</v>
       </c>
       <c r="D6">
-        <v>1.675917316153373</v>
+        <v>4.851996902537562</v>
       </c>
       <c r="E6">
-        <v>4.384205465296882</v>
+        <v>20.72590119123628</v>
       </c>
       <c r="F6">
-        <v>2.52487792541014</v>
+        <v>8.217892457339726</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7">
-        <v>4.599411904495814</v>
+        <v>4.15578499805456</v>
       </c>
       <c r="C7">
-        <v>4.823244570297132</v>
+        <v>4.141779907410857</v>
       </c>
       <c r="D7">
-        <v>4.851996902537562</v>
+        <v>4.184232073998624</v>
       </c>
       <c r="E7">
-        <v>20.72590119123628</v>
+        <v>10.28899255619768</v>
       </c>
       <c r="F7">
-        <v>8.217892457339726</v>
+        <v>5.778247761289827</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>8.942614033714337</v>
+      </c>
+      <c r="C8">
+        <v>8.95354696061241</v>
+      </c>
+      <c r="D8">
+        <v>9.527771166348487</v>
+      </c>
+      <c r="E8">
+        <v>27.37007288159887</v>
+      </c>
+      <c r="F8">
+        <v>12.72156244016184</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B9">
-        <v>4.15578499805456</v>
+        <v>10.61480774201598</v>
       </c>
       <c r="C9">
-        <v>4.141779907410857</v>
+        <v>8.547996114603933</v>
       </c>
       <c r="D9">
-        <v>4.184232073998624</v>
+        <v>7.359244704989798</v>
       </c>
       <c r="E9">
-        <v>10.28899255619768</v>
+        <v>54.53185257570376</v>
       </c>
       <c r="F9">
-        <v>5.778247761289827</v>
+        <v>19.84932362564737</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B10">
-        <v>8.942614033714337</v>
+        <v>11.47244943795685</v>
       </c>
       <c r="C10">
-        <v>8.95354696061241</v>
+        <v>11.42726824070306</v>
       </c>
       <c r="D10">
-        <v>9.527771166348487</v>
+        <v>11.35231413801018</v>
       </c>
       <c r="E10">
-        <v>27.37007288159887</v>
+        <v>23.89271133699725</v>
       </c>
       <c r="F10">
-        <v>12.72156244016184</v>
+        <v>16.75394910608006</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B11">
-        <v>10.61480774201598</v>
+        <v>10.48330710570365</v>
       </c>
       <c r="C11">
-        <v>8.547996114603933</v>
+        <v>10.17645814971517</v>
       </c>
       <c r="D11">
-        <v>7.359244704989798</v>
+        <v>10.26874120977673</v>
       </c>
       <c r="E11">
-        <v>54.53185257570376</v>
+        <v>30.00288784299428</v>
       </c>
       <c r="F11">
-        <v>19.84932362564737</v>
+        <v>18.18984353456164</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B12">
-        <v>11.47244943795685</v>
+        <v>7.215631707759275</v>
       </c>
       <c r="C12">
-        <v>11.42726824070306</v>
+        <v>7.209725189565951</v>
       </c>
       <c r="D12">
-        <v>11.35231413801018</v>
+        <v>7.250700465702586</v>
       </c>
       <c r="E12">
-        <v>23.89271133699725</v>
+        <v>16.11121848261379</v>
       </c>
       <c r="F12">
-        <v>16.75394910608006</v>
+        <v>9.515769309280188</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B13">
-        <v>10.48330710570365</v>
+        <v>13.54108293134639</v>
       </c>
       <c r="C13">
-        <v>10.17645814971517</v>
+        <v>12.48737726795813</v>
       </c>
       <c r="D13">
-        <v>10.26874120977673</v>
+        <v>12.30495270857686</v>
       </c>
       <c r="E13">
-        <v>30.00288784299428</v>
+        <v>37.39902245679242</v>
       </c>
       <c r="F13">
-        <v>18.18984353456164</v>
+        <v>20.97608519503952</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B14">
-        <v>7.215631707759275</v>
+        <v>11.69173193603076</v>
       </c>
       <c r="C14">
-        <v>7.209725189565951</v>
+        <v>12.61320165720454</v>
       </c>
       <c r="D14">
-        <v>7.250700465702586</v>
+        <v>13.47235331507962</v>
       </c>
       <c r="E14">
-        <v>16.11121848261379</v>
+        <v>29.99880254657099</v>
       </c>
       <c r="F14">
-        <v>9.515769309280188</v>
+        <v>12.76372748110403</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B15">
-        <v>13.54108293134639</v>
+        <v>3.874819333529007</v>
       </c>
       <c r="C15">
-        <v>12.48737726795813</v>
+        <v>3.920413562834955</v>
       </c>
       <c r="D15">
-        <v>12.30495270857686</v>
+        <v>4.069910324900476</v>
       </c>
       <c r="E15">
-        <v>37.39902245679242</v>
+        <v>7.163413219632298</v>
       </c>
       <c r="F15">
-        <v>20.97608519503952</v>
+        <v>5.613954237488506</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B16">
-        <v>11.69173193603076</v>
+        <v>17.62100063663628</v>
       </c>
       <c r="C16">
-        <v>12.61320165720454</v>
+        <v>17.55163099834815</v>
       </c>
       <c r="D16">
-        <v>13.47235331507962</v>
+        <v>18.10444243857739</v>
       </c>
       <c r="E16">
-        <v>29.99880254657099</v>
+        <v>23.45379911127016</v>
       </c>
       <c r="F16">
-        <v>12.76372748110403</v>
+        <v>22.69193651846236</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B17">
-        <v>3.874819333529007</v>
+        <v>13.13155078611645</v>
       </c>
       <c r="C17">
-        <v>3.920413562834955</v>
+        <v>12.64220170122984</v>
       </c>
       <c r="D17">
-        <v>4.069910324900476</v>
+        <v>13.13360196159403</v>
       </c>
       <c r="E17">
-        <v>7.163413219632298</v>
+        <v>56.69648303121058</v>
       </c>
       <c r="F17">
-        <v>5.613954237488506</v>
+        <v>20.41011728426705</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B18">
-        <v>17.62100063663628</v>
+        <v>7.138117621389976</v>
       </c>
       <c r="C18">
-        <v>17.55163099834815</v>
+        <v>7.533753239331876</v>
       </c>
       <c r="D18">
-        <v>18.10444243857739</v>
+        <v>7.646441553433142</v>
       </c>
       <c r="E18">
-        <v>23.45379911127016</v>
+        <v>16.07729432661198</v>
       </c>
       <c r="F18">
-        <v>22.69193651846236</v>
+        <v>9.337275377577463</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B19">
-        <v>13.13155078611645</v>
+        <v>10.77331624731087</v>
       </c>
       <c r="C19">
-        <v>12.64220170122984</v>
+        <v>11.73907775915959</v>
       </c>
       <c r="D19">
-        <v>13.13360196159403</v>
+        <v>12.05494283644013</v>
       </c>
       <c r="E19">
-        <v>56.69648303121058</v>
+        <v>19.34824211308305</v>
       </c>
       <c r="F19">
-        <v>20.41011728426705</v>
+        <v>14.37621111392248</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B20">
-        <v>7.138117621389976</v>
+        <v>11.63233172881337</v>
       </c>
       <c r="C20">
-        <v>7.533753239331876</v>
+        <v>12.15329253386568</v>
       </c>
       <c r="D20">
-        <v>7.646441553433142</v>
+        <v>11.72837161960081</v>
       </c>
       <c r="E20">
-        <v>16.07729432661198</v>
+        <v>28.11305242923954</v>
       </c>
       <c r="F20">
-        <v>9.337275377577463</v>
+        <v>17.30255915769367</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B21">
-        <v>10.77331624731087</v>
+        <v>6.039061055031328</v>
       </c>
       <c r="C21">
-        <v>11.73907775915959</v>
+        <v>6.792478341631451</v>
       </c>
       <c r="D21">
-        <v>12.05494283644013</v>
+        <v>7.538819746389844</v>
       </c>
       <c r="E21">
-        <v>19.34824211308305</v>
+        <v>17.73577519734118</v>
       </c>
       <c r="F21">
-        <v>14.37621111392248</v>
+        <v>8.962918764658705</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B22">
-        <v>11.63233172881337</v>
+        <v>10.74917222425894</v>
       </c>
       <c r="C22">
-        <v>12.15329253386568</v>
+        <v>11.90115067587729</v>
       </c>
       <c r="D22">
-        <v>11.72837161960081</v>
+        <v>11.59039522801922</v>
       </c>
       <c r="E22">
-        <v>28.11305242923954</v>
+        <v>27.519797927087</v>
       </c>
       <c r="F22">
-        <v>17.30255915769367</v>
+        <v>18.51638451390266</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B23">
-        <v>6.039061055031328</v>
+        <v>9.213847890363311</v>
       </c>
       <c r="C23">
-        <v>6.792478341631451</v>
+        <v>10.16561138002897</v>
       </c>
       <c r="D23">
-        <v>7.538819746389844</v>
+        <v>10.74554315063028</v>
       </c>
       <c r="E23">
-        <v>17.73577519734118</v>
+        <v>29.66109973703061</v>
       </c>
       <c r="F23">
-        <v>8.962918764658705</v>
+        <v>14.70159640636354</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B24">
-        <v>10.74917222425894</v>
+        <v>5.681499843487578</v>
       </c>
       <c r="C24">
-        <v>11.90115067587729</v>
+        <v>6.127578454065581</v>
       </c>
       <c r="D24">
-        <v>11.59039522801922</v>
+        <v>6.337775193742685</v>
       </c>
       <c r="E24">
-        <v>27.519797927087</v>
+        <v>13.35844729177475</v>
       </c>
       <c r="F24">
-        <v>18.51638451390266</v>
+        <v>8.492665191940544</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B25">
-        <v>9.213847890363311</v>
+        <v>2.799510227285805</v>
       </c>
       <c r="C25">
-        <v>10.16561138002897</v>
+        <v>2.940396515057826</v>
       </c>
       <c r="D25">
-        <v>10.74554315063028</v>
+        <v>2.9424287580628</v>
       </c>
       <c r="E25">
-        <v>29.66109973703061</v>
+        <v>8.081755677972755</v>
       </c>
       <c r="F25">
-        <v>14.70159640636354</v>
+        <v>4.241036991070295</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B26">
-        <v>5.681499843487578</v>
+        <v>4.961407899082059</v>
       </c>
       <c r="C26">
-        <v>6.127578454065581</v>
+        <v>5.114399904690279</v>
       </c>
       <c r="D26">
-        <v>6.337775193742685</v>
+        <v>5.169296511378623</v>
       </c>
       <c r="E26">
-        <v>13.35844729177475</v>
+        <v>12.26150458464063</v>
       </c>
       <c r="F26">
-        <v>8.492665191940544</v>
+        <v>7.21123809664839</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B27">
-        <v>2.799510227285805</v>
+        <v>10.30288030238203</v>
       </c>
       <c r="C27">
-        <v>2.940396515057826</v>
+        <v>10.79695061783883</v>
       </c>
       <c r="D27">
-        <v>2.9424287580628</v>
+        <v>11.38944863176032</v>
       </c>
       <c r="E27">
-        <v>8.081755677972755</v>
+        <v>24.71745280417673</v>
       </c>
       <c r="F27">
-        <v>4.241036991070295</v>
+        <v>16.23373531052704</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B28">
-        <v>4.961407899082059</v>
+        <v>5.707334189898313</v>
       </c>
       <c r="C28">
-        <v>5.114399904690279</v>
+        <v>6.334081630827258</v>
       </c>
       <c r="D28">
-        <v>5.169296511378623</v>
+        <v>6.601061648606428</v>
       </c>
       <c r="E28">
-        <v>12.26150458464063</v>
+        <v>20.13810932110788</v>
       </c>
       <c r="F28">
-        <v>7.21123809664839</v>
+        <v>8.690177491843194</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B29">
-        <v>10.30288030238203</v>
+        <v>4.224262035630449</v>
       </c>
       <c r="C29">
-        <v>10.79695061783883</v>
+        <v>4.405770564018515</v>
       </c>
       <c r="D29">
-        <v>11.38944863176032</v>
+        <v>4.372121897654435</v>
       </c>
       <c r="E29">
-        <v>24.71745280417673</v>
+        <v>12.08679592892981</v>
       </c>
       <c r="F29">
-        <v>16.23373531052704</v>
+        <v>6.67220319095652</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B30">
-        <v>5.707334189898313</v>
+        <v>3.197790273705401</v>
       </c>
       <c r="C30">
-        <v>6.334081630827258</v>
+        <v>3.346570413890774</v>
       </c>
       <c r="D30">
-        <v>6.601061648606428</v>
+        <v>3.482388263794314</v>
       </c>
       <c r="E30">
-        <v>20.13810932110788</v>
+        <v>11.11167712754787</v>
       </c>
       <c r="F30">
-        <v>8.690177491843194</v>
+        <v>5.763971347508079</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B31">
-        <v>4.224262035630449</v>
+        <v>4.632253348583405</v>
       </c>
       <c r="C31">
-        <v>4.405770564018515</v>
+        <v>5.010738254976904</v>
       </c>
       <c r="D31">
-        <v>4.372121897654435</v>
+        <v>5.121397004634312</v>
       </c>
       <c r="E31">
-        <v>12.08679592892981</v>
+        <v>16.69350980445946</v>
       </c>
       <c r="F31">
-        <v>6.67220319095652</v>
+        <v>8.723291778997011</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B32">
-        <v>3.197790273705401</v>
+        <v>7.612748349057986</v>
       </c>
       <c r="C32">
-        <v>3.346570413890774</v>
+        <v>7.57163644487043</v>
       </c>
       <c r="D32">
-        <v>3.482388263794314</v>
+        <v>7.580575905877941</v>
       </c>
       <c r="E32">
-        <v>11.11167712754787</v>
+        <v>29.0646534255652</v>
       </c>
       <c r="F32">
-        <v>5.763971347508079</v>
+        <v>13.97012375556551</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B33">
-        <v>4.632253348583405</v>
+        <v>5.199608946392152</v>
       </c>
       <c r="C33">
-        <v>5.010738254976904</v>
+        <v>5.477396761646732</v>
       </c>
       <c r="D33">
-        <v>5.121397004634312</v>
+        <v>5.907740562344769</v>
       </c>
       <c r="E33">
-        <v>16.69350980445946</v>
+        <v>17.3088886271805</v>
       </c>
       <c r="F33">
-        <v>8.723291778997011</v>
+        <v>9.011617720763269</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B34">
-        <v>7.612748349057986</v>
+        <v>3.194471667231749</v>
       </c>
       <c r="C34">
-        <v>7.57163644487043</v>
+        <v>3.335245492857434</v>
       </c>
       <c r="D34">
-        <v>7.580575905877941</v>
+        <v>3.352416438738192</v>
       </c>
       <c r="E34">
-        <v>29.0646534255652</v>
+        <v>9.582456921669692</v>
       </c>
       <c r="F34">
-        <v>13.97012375556551</v>
+        <v>5.637693510339678</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B35">
-        <v>5.199608946392152</v>
+        <v>7.195084260177779</v>
       </c>
       <c r="C35">
-        <v>5.477396761646732</v>
+        <v>7.175149879197959</v>
       </c>
       <c r="D35">
-        <v>5.907740562344769</v>
+        <v>7.231419187394924</v>
       </c>
       <c r="E35">
-        <v>17.3088886271805</v>
+        <v>20.6565833897202</v>
       </c>
       <c r="F35">
-        <v>9.011617720763269</v>
+        <v>12.22876311791295</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B36">
-        <v>3.194471667231749</v>
+        <v>7.055630334909741</v>
       </c>
       <c r="C36">
-        <v>3.335245492857434</v>
+        <v>7.528158481853132</v>
       </c>
       <c r="D36">
-        <v>3.352416438738192</v>
+        <v>7.644119616641256</v>
       </c>
       <c r="E36">
-        <v>9.582456921669692</v>
+        <v>24.68587055140286</v>
       </c>
       <c r="F36">
-        <v>5.637693510339678</v>
+        <v>10.56572969142672</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B37">
-        <v>7.195084260177779</v>
+        <v>5.007966195380185</v>
       </c>
       <c r="C37">
-        <v>7.175149879197959</v>
+        <v>5.185499068776861</v>
       </c>
       <c r="D37">
-        <v>7.231419187394924</v>
+        <v>5.172325678303439</v>
       </c>
       <c r="E37">
-        <v>20.6565833897202</v>
+        <v>14.59664602842885</v>
       </c>
       <c r="F37">
-        <v>12.22876311791295</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B38">
-        <v>7.055630334909741</v>
-      </c>
-      <c r="C38">
-        <v>7.528158481853132</v>
-      </c>
-      <c r="D38">
-        <v>7.644119616641256</v>
-      </c>
-      <c r="E38">
-        <v>24.68587055140286</v>
-      </c>
-      <c r="F38">
-        <v>10.56572969142672</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B39">
-        <v>5.007966195380185</v>
-      </c>
-      <c r="C39">
-        <v>5.185499068776861</v>
-      </c>
-      <c r="D39">
-        <v>5.172325678303439</v>
-      </c>
-      <c r="E39">
-        <v>14.59664602842885</v>
-      </c>
-      <c r="F39">
         <v>9.89840001696791</v>
       </c>
     </row>
